--- a/frequency_big.xlsx
+++ b/frequency_big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizhi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markvanhezik/Documents/EmbeddedSystems/git/EmbeddedSystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2620D1A4-DD67-4503-849C-2C1C6A204C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F68012C-E10F-7248-982C-C958D2AB6BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3669" windowWidth="24694" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>Frequency big CPU</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Frame rate (FPS)</t>
   </si>
@@ -31,38 +28,20 @@
     <t>Latency (ms)</t>
   </si>
   <si>
-    <t>Total time (ms)</t>
+    <t>Power</t>
   </si>
   <si>
-    <t>2.50</t>
+    <t>Total time</t>
   </si>
   <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>Power</t>
+    <t>Frequency big CPU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -73,7 +52,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,11 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,256 +316,256 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.23046875" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" customWidth="1"/>
-    <col min="3" max="3" width="18.15234375" customWidth="1"/>
-    <col min="4" max="5" width="15.61328125" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>500000</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="3">
+        <v>2.2000000000000002</v>
       </c>
       <c r="C2" s="3">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>399.399</v>
-      </c>
-      <c r="E2" s="3">
-        <v>399.399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>417.67</v>
+      </c>
+      <c r="E2" s="4">
+        <v>417.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>667000</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="3">
+        <v>2.3199999999999998</v>
       </c>
       <c r="C3" s="3">
-        <v>2.972</v>
-      </c>
-      <c r="D3" s="3">
-        <v>336.411</v>
-      </c>
-      <c r="E3" s="3">
-        <v>336.411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+        <v>3.2879999999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>304.06599999999997</v>
+      </c>
+      <c r="E3" s="4">
+        <v>304.06599999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1000000</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="3">
+        <v>2.6</v>
       </c>
       <c r="C4" s="3">
-        <v>3.19</v>
-      </c>
-      <c r="D4" s="3">
-        <v>313.39299999999997</v>
-      </c>
-      <c r="E4" s="3">
-        <v>313.39299999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+        <v>4.9109999999999996</v>
+      </c>
+      <c r="D4" s="4">
+        <v>203.62200000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>203.62200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1200000</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="3">
+        <v>2.85</v>
       </c>
       <c r="C5" s="3">
-        <v>3.1989999999999998</v>
-      </c>
-      <c r="D5" s="3">
-        <v>312.58499999999998</v>
-      </c>
-      <c r="E5" s="3">
-        <v>312.58499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+        <v>5.8090000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>172.125</v>
+      </c>
+      <c r="E5" s="4">
+        <v>172.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1398000</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="B6" s="3">
+        <v>3.05</v>
       </c>
       <c r="C6" s="3">
-        <v>3.2040000000000002</v>
-      </c>
-      <c r="D6" s="3">
-        <v>312.09800000000001</v>
-      </c>
-      <c r="E6" s="3">
-        <v>312.09800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+        <v>6.7350000000000003</v>
+      </c>
+      <c r="D6" s="4">
+        <v>148.46899999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>148.46899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>1512000</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+      <c r="B7" s="3">
+        <v>3.25</v>
       </c>
       <c r="C7" s="3">
-        <v>3.1970000000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <v>312.73399999999998</v>
-      </c>
-      <c r="E7" s="3">
-        <v>312.73399999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>138.501</v>
+      </c>
+      <c r="E7" s="4">
+        <v>138.501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1608000</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+      <c r="B8" s="3">
+        <v>3.6</v>
       </c>
       <c r="C8" s="3">
-        <v>3.2040000000000002</v>
-      </c>
-      <c r="D8" s="3">
-        <v>312.02800000000002</v>
-      </c>
-      <c r="E8" s="3">
-        <v>312.02800000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+        <v>7.6340000000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>130.97999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>130.97999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1704000</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+      <c r="B9" s="3">
+        <v>3.8</v>
       </c>
       <c r="C9" s="3">
-        <v>3.2040000000000002</v>
-      </c>
-      <c r="D9" s="3">
-        <v>312.04199999999997</v>
-      </c>
-      <c r="E9" s="3">
-        <v>312.04199999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D9" s="4">
+        <v>124.175</v>
+      </c>
+      <c r="E9" s="4">
+        <v>124.175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>1800000</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
+      <c r="B10" s="3">
+        <v>3.87</v>
       </c>
       <c r="C10" s="3">
-        <v>3.2080000000000002</v>
-      </c>
-      <c r="D10" s="3">
-        <v>311.62599999999998</v>
-      </c>
-      <c r="E10" s="3">
-        <v>311.62599999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+        <v>8.0310000000000006</v>
+      </c>
+      <c r="D10" s="4">
+        <v>124.506</v>
+      </c>
+      <c r="E10" s="4">
+        <v>124.506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>1908000</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
+      <c r="B11" s="3">
+        <v>3.8</v>
       </c>
       <c r="C11" s="3">
-        <v>3.1880000000000002</v>
-      </c>
-      <c r="D11" s="3">
-        <v>313.62099999999998</v>
-      </c>
-      <c r="E11" s="3">
-        <v>313.62099999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+        <v>8.0510000000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>124.19499999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>124.19499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2016000</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
+      <c r="B12" s="3">
+        <v>3.81</v>
       </c>
       <c r="C12" s="3">
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="D12" s="3">
-        <v>313.26600000000002</v>
-      </c>
-      <c r="E12" s="3">
-        <v>313.26600000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="D12" s="4">
+        <v>124.303</v>
+      </c>
+      <c r="E12" s="4">
+        <v>124.303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2100000</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
+      <c r="B13" s="3">
+        <v>3.87</v>
       </c>
       <c r="C13" s="3">
-        <v>3.206</v>
-      </c>
-      <c r="D13" s="3">
-        <v>311.88799999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>311.88799999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+        <v>8.0410000000000004</v>
+      </c>
+      <c r="D13" s="4">
+        <v>124.351</v>
+      </c>
+      <c r="E13" s="4">
+        <v>124.351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>2208000</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
+      <c r="B14" s="3">
+        <v>3.85</v>
       </c>
       <c r="C14" s="3">
-        <v>3.19</v>
-      </c>
-      <c r="D14" s="3">
-        <v>313.43700000000001</v>
-      </c>
-      <c r="E14" s="3">
-        <v>313.43700000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.0410000000000004</v>
+      </c>
+      <c r="D14" s="4">
+        <v>124.361</v>
+      </c>
+      <c r="E14" s="4">
+        <v>124.361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -581,7 +575,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -591,7 +585,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -601,7 +595,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -611,7 +605,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -621,7 +615,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -631,7 +625,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -641,7 +635,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -651,7 +645,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -661,7 +655,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -671,7 +665,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -681,7 +675,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
